--- a/2024-03-13_02-17-15_pack-group-1_99e4d13a-e977-4009-adb0-5ff8d8457be5.xlsx
+++ b/2024-03-13_02-17-15_pack-group-1_99e4d13a-e977-4009-adb0-5ff8d8457be5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\barcode-Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC61C1-DF18-4A3A-A667-E4C41B8F2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A7D40D-B81D-4D00-9482-9E76B3FE854D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -634,8 +634,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -658,8 +660,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,10 +988,10 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="30"/>
@@ -1022,19 +1022,19 @@
       <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="30"/>
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1596,7 +1596,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -1608,24 +1608,24 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="30"/>
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="30"/>
@@ -1717,7 +1717,7 @@
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="30"/>
@@ -1733,7 +1733,7 @@
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="30"/>
@@ -1749,7 +1749,7 @@
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="30"/>
@@ -1765,7 +1765,7 @@
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -1777,21 +1777,21 @@
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
     </row>
   </sheetData>
   <sheetProtection password="DFB5" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
